--- a/mbs-perturbation/bottleneck/elm/bottleneck_elm_lin_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/bottleneck_elm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9145299145299145</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9568522244578582</v>
+        <v>0.9081660336408031</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9416152263374485</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9227467811158798</v>
+        <v>0.910377358490566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3448275862068965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.940850959173635</v>
+        <v>0.9400717703349283</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8969957081545065</v>
+        <v>0.9386792452830188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9623076923076923</v>
+        <v>0.9616336633663366</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9527896995708155</v>
+        <v>0.9386792452830188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9831349206349207</v>
+        <v>0.9366515837104072</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9194637027255054</v>
+        <v>0.922805385773762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.153406850459482</v>
+        <v>0.2111511398817901</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2174980574980575</v>
+        <v>0.3013086217072459</v>
       </c>
       <c r="E7" t="n">
-        <v>0.956952204582311</v>
+        <v>0.9314474673533522</v>
       </c>
     </row>
   </sheetData>
